--- a/result/excel.xlsx
+++ b/result/excel.xlsx
@@ -506,7 +506,11 @@
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IGLV1-51*02</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>442</t>
@@ -524,7 +528,11 @@
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>IGLV1-41*01</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>383</t>
@@ -542,7 +550,11 @@
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IGLJ2*01</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>52.6</t>
@@ -560,7 +572,11 @@
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>IGLJ3*01</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>52.6</t>
@@ -578,7 +594,11 @@
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IGLJ3*02</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>46.8</t>
@@ -937,7 +957,11 @@
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IGLV1-44*02</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>456</t>
@@ -955,7 +979,11 @@
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>IGLV1-44*03</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>456</t>
@@ -973,7 +1001,11 @@
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IGLJ3*02</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>64.1</t>
@@ -991,7 +1023,11 @@
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>IGLJ2*01</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>58.4</t>
@@ -1009,7 +1045,11 @@
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IGLJ3*01</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>58.4</t>
@@ -1364,7 +1404,11 @@
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IGLV2-23*01</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>453</t>
@@ -1382,7 +1426,11 @@
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>IGLV2-23*03</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>453</t>
@@ -1400,7 +1448,11 @@
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IGLJ2*01</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>68.0</t>
@@ -1418,7 +1470,11 @@
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>IGLJ3*01</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>68.0</t>
@@ -1436,7 +1492,11 @@
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IGLJ3*02</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>58.4</t>
@@ -1791,7 +1851,11 @@
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IGLV7-46*01</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>449</t>
@@ -1809,7 +1873,11 @@
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>IGLV7-46*02</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>445</t>
@@ -1827,7 +1895,11 @@
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IGLJ3*02</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>69.9</t>
@@ -1845,7 +1917,11 @@
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>IGLJ2*01</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>58.4</t>
@@ -1863,7 +1939,11 @@
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IGLJ3*01</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>58.4</t>
@@ -2218,7 +2298,11 @@
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IGLV3-21*03</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>438</t>
@@ -2236,7 +2320,11 @@
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>IGLV3-21*04</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>428</t>
@@ -2254,7 +2342,11 @@
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IGLJ1*01</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>73.7</t>
@@ -2272,7 +2364,11 @@
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>IGLJ6*01</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>37.2</t>
@@ -2290,7 +2386,11 @@
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IGLJ2*01</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>31.5</t>
@@ -2649,7 +2749,11 @@
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IGLV2-23*03</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>461</t>
@@ -2667,7 +2771,11 @@
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>IGLV2-23*02</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>458</t>
@@ -2685,7 +2793,11 @@
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IGLJ3*02</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>66.1</t>
@@ -2703,7 +2815,11 @@
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>IGLJ2*01</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>58.4</t>
@@ -2721,7 +2837,11 @@
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IGLJ3*01</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>58.4</t>
@@ -3076,7 +3196,11 @@
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IGLV2-23*03</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>420</t>
@@ -3094,7 +3218,11 @@
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>IGLV2-23*01</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>419</t>
@@ -3112,7 +3240,11 @@
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IGLJ2*01</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>71.8</t>
@@ -3130,7 +3262,11 @@
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>IGLJ3*01</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>71.8</t>
@@ -3148,7 +3284,11 @@
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IGLJ3*02</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>62.2</t>

--- a/result/excel.xlsx
+++ b/result/excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CU8"/>
+  <dimension ref="A1:DI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,110 +816,180 @@
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
+          <t>FR1-IMGT_gene_seq</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>FR1-IMGT_pro_seq</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>CDR1-IMGT_gene_seq</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>CDR1-IMGT_pro_seq</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>FR2-IMGT_gene_seq</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>FR2-IMGT_pro_seq</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>CDR2-IM_gene_seq</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>CDR2-IM_pro_seq</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>FR3-IMGT_gene_seq</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>FR3-IMGT_pro_seq</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>CDR3-IMGT_gene_seq</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>CDR3-IMGT_pro_seq</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>FR4-IMGT_gene_seq</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>FR4-IMGT_pro_seq</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
           <t>IGLV1-44*02_score</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>IGLV1-44*02_E values</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>IGLV1-44*03_score</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>IGLV1-44*03_E values</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>IGLV2-23*01_score</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>IGLV2-23*01_E values</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>IGLV2-23*03_score</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>IGLV2-23*03_E values</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>IGLV7-46*01_score</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>IGLV7-46*01_E values</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>IGLV7-46*02_score</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>IGLV7-46*02_E values</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>IGLV3-21*03_score</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>IGLV3-21*03_E values</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>IGLV3-21*04_score</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>IGLV3-21*04_E values</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>IGLJ1*01_score</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>IGLJ1*01_E values</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>IGLJ6*01_score</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>IGLJ6*01_E values</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>IGLV2-23*02_score</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>IGLV2-23*02_E values</t>
         </is>
@@ -1181,20 +1251,76 @@
       <c r="BY2" t="n">
         <v>99</v>
       </c>
-      <c r="BZ2" t="inlineStr"/>
-      <c r="CA2" t="inlineStr"/>
-      <c r="CB2" t="inlineStr"/>
-      <c r="CC2" t="inlineStr"/>
-      <c r="CD2" t="inlineStr"/>
-      <c r="CE2" t="inlineStr"/>
-      <c r="CF2" t="inlineStr"/>
-      <c r="CG2" t="inlineStr"/>
-      <c r="CH2" t="inlineStr"/>
-      <c r="CI2" t="inlineStr"/>
-      <c r="CJ2" t="inlineStr"/>
-      <c r="CK2" t="inlineStr"/>
-      <c r="CL2" t="inlineStr"/>
-      <c r="CM2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>CAGTCTGTGCTGACGCAGCCGCCCTCAGTGTCTGCGGCCCCAGGACAGAAGGTCACCATCTCCTGCTCTGGAAGC</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q  S  V  L  T  Q  P  P  S  V  S  A  A  P  G  Q  K  V  T  I  S  C  S  G  S </t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>AGCTCCAACATTGGGAATAATTAT</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S  S  N  I  G  N  N  Y </t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>GTATCCTGGTACCAGCAGCTCCCAGGAACAGCCCCCAAACTCCTCATTTAT</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> V  S  W  Y  Q  Q  L  P  G  T  A  P  K  L  L  I  Y </t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>GACAATAAT</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> D  N  N </t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>AAGCGACCCTCAGGGATTCCTGCGGACCGATTCTCTGGCTCCAAGTCTGGCACGTCAGCCACCCTGGGCATCACCGGACTCCAGACTGGGGACGAGGCCGATTATTAC</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> K  R  P  S  G  I  P  D  R  F  S  G  S  K  S  G  T  S  A  T  L  G  I  T  G  L  Q  T  G  D  E  A  D  Y  Y  C </t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>TGCGGAACAAGGGATAGCAGCCTGAGCGCGGCG</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> G  T  R  D  S  S  L  S  A  A  V </t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>GTATTCGGCGGAGGGACCAAGCT</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F  G  G  G  T  K  L  T</t>
+        </is>
+      </c>
       <c r="CN2" t="inlineStr"/>
       <c r="CO2" t="inlineStr"/>
       <c r="CP2" t="inlineStr"/>
@@ -1203,6 +1329,20 @@
       <c r="CS2" t="inlineStr"/>
       <c r="CT2" t="inlineStr"/>
       <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2" t="inlineStr"/>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2" t="inlineStr"/>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1448,36 +1588,106 @@
       <c r="BY3" t="n">
         <v>99.7</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>CAGTCTGTGCTGACGCAGCCACCCTCAGCGTCTGGGACCCCCGGGCAGAGGGTCACCATCTCTTGTTCTGGAAGC</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q  S  V  L  T  Q  P  P  S  A  S  G  T  P  G  Q  R  V  T  I  S  C  S  G  S </t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>AGCTCCAACATCGGAAGTAATACT</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S  S  N  I  G  S  N  T </t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>GTAAACTGGTACCAGCAGCTCCCAGGAACGGCCCCCAAACTCCTCATCTAT</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> V  N  W  Y  Q  Q  L  P  G  T  A  P  K  L  L  I  Y </t>
+        </is>
+      </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>AGTAATAAT</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S  N  N </t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>CAGCGGCCCTCAGGGGTCCCTGACCGATTCTCTGGCTCCAAGTCTGGCACCTCAGCCTCCCTGGCCATCAGTGGGCTCCAGTCTGAGGATGAGGCTGATTATTACTGT</t>
+        </is>
+      </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q  R  P  S  G  V  P  D  R  F  S  G  S  K  S  G  T  S  A  S  L  A  I  S  G  L  Q  S  E  D  E  A  D  Y  Y  C </t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>GCAGCATGGGATGACAGCCTGAATGGTCCGGTG</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A  A  W  D  D  S  L  N  G  P  V </t>
+        </is>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>TTCGGCGGAGGGACCAAGCTGACCNTCCTA</t>
+        </is>
+      </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F  G  G  G  T  K  L  T  X  L </t>
+        </is>
+      </c>
+      <c r="CN3" t="n">
         <v>456</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CO3" t="n">
         <v>2e-130</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CP3" t="n">
         <v>456</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CQ3" t="n">
         <v>2e-130</v>
       </c>
-      <c r="CD3" t="inlineStr"/>
-      <c r="CE3" t="inlineStr"/>
-      <c r="CF3" t="inlineStr"/>
-      <c r="CG3" t="inlineStr"/>
-      <c r="CH3" t="inlineStr"/>
-      <c r="CI3" t="inlineStr"/>
-      <c r="CJ3" t="inlineStr"/>
-      <c r="CK3" t="inlineStr"/>
-      <c r="CL3" t="inlineStr"/>
-      <c r="CM3" t="inlineStr"/>
-      <c r="CN3" t="inlineStr"/>
-      <c r="CO3" t="inlineStr"/>
-      <c r="CP3" t="inlineStr"/>
-      <c r="CQ3" t="inlineStr"/>
       <c r="CR3" t="inlineStr"/>
       <c r="CS3" t="inlineStr"/>
       <c r="CT3" t="inlineStr"/>
       <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="inlineStr"/>
+      <c r="DB3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr"/>
+      <c r="DE3" t="inlineStr"/>
+      <c r="DF3" t="inlineStr"/>
+      <c r="DG3" t="inlineStr"/>
+      <c r="DH3" t="inlineStr"/>
+      <c r="DI3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1723,36 +1933,106 @@
       <c r="BY4" t="n">
         <v>99.7</v>
       </c>
-      <c r="BZ4" t="inlineStr"/>
-      <c r="CA4" t="inlineStr"/>
-      <c r="CB4" t="inlineStr"/>
-      <c r="CC4" t="inlineStr"/>
-      <c r="CD4" t="n">
-        <v>453</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>9.999999999999999e-130</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>453</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>9.999999999999999e-130</v>
-      </c>
-      <c r="CH4" t="inlineStr"/>
-      <c r="CI4" t="inlineStr"/>
-      <c r="CJ4" t="inlineStr"/>
-      <c r="CK4" t="inlineStr"/>
-      <c r="CL4" t="inlineStr"/>
-      <c r="CM4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>CAGTCTGCCCTGACTCAGCCTGCCTCCGTGTCTGGGTCTCCTGGACAGTCGATCACCATCTCCTGCACTGGAACC</t>
+        </is>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q  S  A  L  T  Q  P  A  S  V  S  G  S  P  G  Q  S  I  T  I  S  C  T  G  T </t>
+        </is>
+      </c>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t>AGCAGTGATGTTGGGAGTTATAACCTT</t>
+        </is>
+      </c>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S  S  D  V  G  S  Y  N  L </t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>GTCTCCTGGTACCAACAGCACCCAGGCAAAGCCCCCAAACTCATGATTTAT</t>
+        </is>
+      </c>
+      <c r="CE4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> V  S  W  Y  Q  Q  H  P  G  K  A  P  K  L  M  I  Y </t>
+        </is>
+      </c>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>GAGGTCAGT</t>
+        </is>
+      </c>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> E  V  S </t>
+        </is>
+      </c>
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>AAGCGGCCCTCAGGGGTTTCTAATCGCTTCTCTGGCTCCAAGTATGGCAACACGGCCTCCCTGACAATCTCTGGGCTCCAGGCTGAGGACGAGGCTGATTATTACTGC</t>
+        </is>
+      </c>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> K  R  P  S  G  V  S  N  R  F  S  G  S  K  Y  G  N  T  A  S  L  T  I  S  G  L  Q  A  E  D  E  A  D  Y  Y  C </t>
+        </is>
+      </c>
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t>TGCTCATATGCAGGTAGTAGCACTGTGGTA</t>
+        </is>
+      </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> C  S  Y  A  G  S  S  T  V  V </t>
+        </is>
+      </c>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>TTCGGCGGAGGGACCAAGCTGACCNTCCTA</t>
+        </is>
+      </c>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F  G  G  G  T  K  L  T  X  L </t>
+        </is>
+      </c>
       <c r="CN4" t="inlineStr"/>
       <c r="CO4" t="inlineStr"/>
       <c r="CP4" t="inlineStr"/>
       <c r="CQ4" t="inlineStr"/>
-      <c r="CR4" t="inlineStr"/>
-      <c r="CS4" t="inlineStr"/>
-      <c r="CT4" t="inlineStr"/>
-      <c r="CU4" t="inlineStr"/>
+      <c r="CR4" t="n">
+        <v>453</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>9.999999999999999e-130</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>453</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>9.999999999999999e-130</v>
+      </c>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr"/>
+      <c r="DE4" t="inlineStr"/>
+      <c r="DF4" t="inlineStr"/>
+      <c r="DG4" t="inlineStr"/>
+      <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1998,28 +2278,76 @@
       <c r="BY5" t="n">
         <v>99.7</v>
       </c>
-      <c r="BZ5" t="inlineStr"/>
-      <c r="CA5" t="inlineStr"/>
-      <c r="CB5" t="inlineStr"/>
-      <c r="CC5" t="inlineStr"/>
-      <c r="CD5" t="inlineStr"/>
-      <c r="CE5" t="inlineStr"/>
-      <c r="CF5" t="inlineStr"/>
-      <c r="CG5" t="inlineStr"/>
-      <c r="CH5" t="n">
-        <v>449</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>4e-128</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>445</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>3e-127</v>
-      </c>
-      <c r="CL5" t="inlineStr"/>
-      <c r="CM5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>CAGACTGTGGTGACTCAGGAGCCCTCACTGACTGTGTCCCCAGGAGGGACAGTCACTCTCACCTGTGGCTCCAGC</t>
+        </is>
+      </c>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q  T  V  V  T  Q  E  P  S  L  T  V  S  P  G  G  T  V  T  L  T  C  G  S  S </t>
+        </is>
+      </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>ACTGGAGCTGTCACCAGTGGTCATTAT</t>
+        </is>
+      </c>
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T  G  A  V  T  S  G  H  Y </t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>CCCTACTGGTTCCAGCAGAAGCCTGGCCAAGCCCCCAGGACACTGATTTAT</t>
+        </is>
+      </c>
+      <c r="CE5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> P  Y  W  F  Q  Q  K  P  G  Q  A  P  R  T  L  I  Y </t>
+        </is>
+      </c>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>GATACAAGC</t>
+        </is>
+      </c>
+      <c r="CG5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> D  T  S </t>
+        </is>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>AACAAACACTCCTGGACCCCTGCCCGGTTCTCAGGCTCCCTCCTTGGGGGCAAAGCTGCCCTGACCCTTTCGGGTGCGCAGCCTGAGGATGAGGCTGAGTATTACTGC</t>
+        </is>
+      </c>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N  K  H  S  W  T  P  A  R  F  S  G  S  L  L  G  G  K  A  A  L  T  L  S  G  A  Q  P  E  D  E  A  E  Y  Y  C </t>
+        </is>
+      </c>
+      <c r="CJ5" t="inlineStr">
+        <is>
+          <t>TTGCTCTCCTATAGTGGTGCTTTGGGTG</t>
+        </is>
+      </c>
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L  L  S  Y  S  G  A  L  G  </t>
+        </is>
+      </c>
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>TTCGGCGGAGGGACCAAGCTGACCNTCCTA</t>
+        </is>
+      </c>
+      <c r="CM5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">V  R  R  R  D  Q  A  D  X  P </t>
+        </is>
+      </c>
       <c r="CN5" t="inlineStr"/>
       <c r="CO5" t="inlineStr"/>
       <c r="CP5" t="inlineStr"/>
@@ -2028,6 +2356,28 @@
       <c r="CS5" t="inlineStr"/>
       <c r="CT5" t="inlineStr"/>
       <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="n">
+        <v>449</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>4e-128</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>445</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>3e-127</v>
+      </c>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr"/>
+      <c r="DE5" t="inlineStr"/>
+      <c r="DF5" t="inlineStr"/>
+      <c r="DG5" t="inlineStr"/>
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2269,44 +2619,114 @@
       <c r="BY6" t="n">
         <v>99.3</v>
       </c>
-      <c r="BZ6" t="inlineStr"/>
-      <c r="CA6" t="inlineStr"/>
-      <c r="CB6" t="inlineStr"/>
-      <c r="CC6" t="inlineStr"/>
-      <c r="CD6" t="inlineStr"/>
-      <c r="CE6" t="inlineStr"/>
-      <c r="CF6" t="inlineStr"/>
-      <c r="CG6" t="inlineStr"/>
-      <c r="CH6" t="inlineStr"/>
-      <c r="CI6" t="inlineStr"/>
-      <c r="CJ6" t="inlineStr"/>
-      <c r="CK6" t="inlineStr"/>
-      <c r="CL6" t="n">
-        <v>438</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>7e-125</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>428</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>5e-122</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>2e-17</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>2e-06</v>
-      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>TCCTATGAGCTGACTCAGCCACCCTCGGTGTCAGTGGCCCCAGGACAGACGGCCAGGATTACCTGTGGGGGAAAC</t>
+        </is>
+      </c>
+      <c r="CA6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S  Y  E  L  T  Q  P  P  S  V  S  V  A  P  G  Q  T  A  R  I  T  C  G  G  N </t>
+        </is>
+      </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>AACATTGGAAGTAAAAAT</t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N  I  G  S  K  N </t>
+        </is>
+      </c>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>GTGCACTGGTACCAGCAGAAGCCAGGCCAGGCCCCTGTGCTGGTCGTCTAT</t>
+        </is>
+      </c>
+      <c r="CE6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> V  H  W  Y  Q  Q  K  P  G  Q  A  P  V  L  V  V  Y </t>
+        </is>
+      </c>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>GATGATAGC</t>
+        </is>
+      </c>
+      <c r="CG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> D  D  S </t>
+        </is>
+      </c>
+      <c r="CH6" t="inlineStr">
+        <is>
+          <t>GACCGGCCCTCAGGGATCCCTGAGCGATTCTCTGGCTCCAACTCTGGGAACACGGCCACCCTGACCATCAGCAGGGTCGAAGCCGGGGATGAGGCCGACTATTACTGT</t>
+        </is>
+      </c>
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> D  R  P  S  G  I  P  E  R  F  S  G  S  N  S  G  N  T  A  T  L  T  I  S  R  V  E  A  G  D  E  A  D  Y  Y  C </t>
+        </is>
+      </c>
+      <c r="CJ6" t="inlineStr">
+        <is>
+          <t>CAGGTGTGGGATAGTAGTAGTGATCCCCATTATGTC</t>
+        </is>
+      </c>
+      <c r="CK6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q  V  W  D  S  S  S  D  P  H  Y  V </t>
+        </is>
+      </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>TTCGGAACTGGGACCAAGGTCACCGTCCTA</t>
+        </is>
+      </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F  G  T  G  T  K  V  T  V  L </t>
+        </is>
+      </c>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
       <c r="CT6" t="inlineStr"/>
       <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="n">
+        <v>438</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>7e-125</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>428</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>5e-122</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>2e-17</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>2e-06</v>
+      </c>
+      <c r="DH6" t="inlineStr"/>
+      <c r="DI6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2552,24 +2972,76 @@
       <c r="BY7" t="n">
         <v>100</v>
       </c>
-      <c r="BZ7" t="inlineStr"/>
-      <c r="CA7" t="inlineStr"/>
-      <c r="CB7" t="inlineStr"/>
-      <c r="CC7" t="inlineStr"/>
-      <c r="CD7" t="inlineStr"/>
-      <c r="CE7" t="inlineStr"/>
-      <c r="CF7" t="n">
-        <v>461</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>7e-132</v>
-      </c>
-      <c r="CH7" t="inlineStr"/>
-      <c r="CI7" t="inlineStr"/>
-      <c r="CJ7" t="inlineStr"/>
-      <c r="CK7" t="inlineStr"/>
-      <c r="CL7" t="inlineStr"/>
-      <c r="CM7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr">
+        <is>
+          <t>CAGTCTGCCCTGACTCAGCCTGCCTCCGTGTCTGGGTCTCCTGGACAGTCGATCACCATCTCCTGCACTGGAACC</t>
+        </is>
+      </c>
+      <c r="CA7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q  S  A  L  T  Q  P  A  S  V  S  G  S  P  G  Q  S  I  T  I  S  C  T  G  T </t>
+        </is>
+      </c>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t>AGCAGTGATGTTGGGAGTTATAACCTT</t>
+        </is>
+      </c>
+      <c r="CC7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S  S  D  V  G  S  Y  N  L </t>
+        </is>
+      </c>
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>GTCTCCTGGTACCAACAGCACCCAGGCAAAGCCCCCAAACTCATGATTTAT</t>
+        </is>
+      </c>
+      <c r="CE7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> V  S  W  Y  Q  Q  H  P  G  K  A  P  K  L  M  I  Y </t>
+        </is>
+      </c>
+      <c r="CF7" t="inlineStr">
+        <is>
+          <t>GAGGGCAGT</t>
+        </is>
+      </c>
+      <c r="CG7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> E  G  S </t>
+        </is>
+      </c>
+      <c r="CH7" t="inlineStr">
+        <is>
+          <t>AAGCGGCCCTCAGGGGTTTCTAATCGCTTCTCTGGCTCCAAGTCTGGCAACACGGCCTCCCTGACAATCTCTGGGCTCCAGGCTGAGGACGAGGCTGATTATTACTGC</t>
+        </is>
+      </c>
+      <c r="CI7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> K  R  P  S  G  V  S  N  R  F  S  G  S  K  S  G  N  T  A  S  L  T  I  S  G  L  Q  A  E  D  E  A  D  Y  Y  C </t>
+        </is>
+      </c>
+      <c r="CJ7" t="inlineStr">
+        <is>
+          <t>TGCTCATATGCAGGTAGTAGCACTTGGGTG</t>
+        </is>
+      </c>
+      <c r="CK7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> C  S  Y  A  G  S  S  T  W  V </t>
+        </is>
+      </c>
+      <c r="CL7" t="inlineStr">
+        <is>
+          <t>TTCGGCGGAGGGACCAAGCTGACCNTCCTA</t>
+        </is>
+      </c>
+      <c r="CM7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F  G  G  G  T  K  L  T  X  L </t>
+        </is>
+      </c>
       <c r="CN7" t="inlineStr"/>
       <c r="CO7" t="inlineStr"/>
       <c r="CP7" t="inlineStr"/>
@@ -2577,9 +3049,27 @@
       <c r="CR7" t="inlineStr"/>
       <c r="CS7" t="inlineStr"/>
       <c r="CT7" t="n">
+        <v>461</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>7e-132</v>
+      </c>
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="inlineStr"/>
+      <c r="CX7" t="inlineStr"/>
+      <c r="CY7" t="inlineStr"/>
+      <c r="CZ7" t="inlineStr"/>
+      <c r="DA7" t="inlineStr"/>
+      <c r="DB7" t="inlineStr"/>
+      <c r="DC7" t="inlineStr"/>
+      <c r="DD7" t="inlineStr"/>
+      <c r="DE7" t="inlineStr"/>
+      <c r="DF7" t="inlineStr"/>
+      <c r="DG7" t="inlineStr"/>
+      <c r="DH7" t="n">
         <v>458</v>
       </c>
-      <c r="CU7" t="n">
+      <c r="DI7" t="n">
         <v>6e-131</v>
       </c>
     </row>
@@ -2827,36 +3317,106 @@
       <c r="BY8" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="BZ8" t="inlineStr"/>
-      <c r="CA8" t="inlineStr"/>
-      <c r="CB8" t="inlineStr"/>
-      <c r="CC8" t="inlineStr"/>
-      <c r="CD8" t="n">
-        <v>419</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>3e-119</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>420</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>1e-119</v>
-      </c>
-      <c r="CH8" t="inlineStr"/>
-      <c r="CI8" t="inlineStr"/>
-      <c r="CJ8" t="inlineStr"/>
-      <c r="CK8" t="inlineStr"/>
-      <c r="CL8" t="inlineStr"/>
-      <c r="CM8" t="inlineStr"/>
+      <c r="BZ8" t="inlineStr">
+        <is>
+          <t>CAGTCTGTGCTGACTCAGCCTGCCTCCGTGTCTGGGTCTCCTGGACAGTCGATCACCATCTCCTGCACTGGAACC</t>
+        </is>
+      </c>
+      <c r="CA8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q  S  V  L  T  Q  P  A  S  V  S  G  S  P  G  Q  S  I  T  I  S  C  T  G  T </t>
+        </is>
+      </c>
+      <c r="CB8" t="inlineStr">
+        <is>
+          <t>AGCAGTGATGTTGGGAGTTATAACCTT</t>
+        </is>
+      </c>
+      <c r="CC8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S  S  D  V  G  S  Y  N  L </t>
+        </is>
+      </c>
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t>GTCTCCTGGTACCAACAGCACCCAGGCAAAGCCCCCAAACTCATGATTTAT</t>
+        </is>
+      </c>
+      <c r="CE8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> V  S  W  Y  Q  Q  H  P  G  K  A  P  K  L  M  I  Y </t>
+        </is>
+      </c>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t>GAGGTCAGT</t>
+        </is>
+      </c>
+      <c r="CG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> E  V  S </t>
+        </is>
+      </c>
+      <c r="CH8" t="inlineStr">
+        <is>
+          <t>AAGCGGCCCTCAGGGGTTTNTAATCTCTTCTCTGGGTNCAAGTAGGGCAACACGGCCTCCCNGACAATCTCTGGGGTCCAGGCTGAGGACGAGGNTGATTATTAATGT</t>
+        </is>
+      </c>
+      <c r="CI8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> K  R  P  S  G  V  X  N  L  F  S  G  X  K  *  G  N  T  A  S  X  T  I  S  G  V  Q  A  E  D  E  X  D  Y  *  C </t>
+        </is>
+      </c>
+      <c r="CJ8" t="inlineStr">
+        <is>
+          <t>TGCTCATATGCAGGTAGTAGCACTTTCGTGGTA</t>
+        </is>
+      </c>
+      <c r="CK8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> C  S  Y  A  G  S  S  T  F  V  V </t>
+        </is>
+      </c>
+      <c r="CL8" t="inlineStr">
+        <is>
+          <t>TTCGGCGGAGGGACCAAGCTGACCGTCCTA</t>
+        </is>
+      </c>
+      <c r="CM8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F  G  G  G  T  K  L  T  V  L </t>
+        </is>
+      </c>
       <c r="CN8" t="inlineStr"/>
       <c r="CO8" t="inlineStr"/>
       <c r="CP8" t="inlineStr"/>
       <c r="CQ8" t="inlineStr"/>
-      <c r="CR8" t="inlineStr"/>
-      <c r="CS8" t="inlineStr"/>
-      <c r="CT8" t="inlineStr"/>
-      <c r="CU8" t="inlineStr"/>
+      <c r="CR8" t="n">
+        <v>419</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>3e-119</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>420</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>1e-119</v>
+      </c>
+      <c r="CV8" t="inlineStr"/>
+      <c r="CW8" t="inlineStr"/>
+      <c r="CX8" t="inlineStr"/>
+      <c r="CY8" t="inlineStr"/>
+      <c r="CZ8" t="inlineStr"/>
+      <c r="DA8" t="inlineStr"/>
+      <c r="DB8" t="inlineStr"/>
+      <c r="DC8" t="inlineStr"/>
+      <c r="DD8" t="inlineStr"/>
+      <c r="DE8" t="inlineStr"/>
+      <c r="DF8" t="inlineStr"/>
+      <c r="DG8" t="inlineStr"/>
+      <c r="DH8" t="inlineStr"/>
+      <c r="DI8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
